--- a/genshin/449606049951873130_2020-10-24_14-21-06.xlsx
+++ b/genshin/449606049951873130_2020-10-24_14-21-06.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-12 02:09:28</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44177.0899074074</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -618,10 +632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-10-31 07:54:43</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44135.32966435186</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -692,10 +704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-10-27 20:51:49</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44131.86931712963</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -767,10 +777,8 @@
           <t>3643495635</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-10-27 15:59:33</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44131.66635416666</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -838,10 +846,8 @@
           <t>3642319723</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-10-27 05:55:27</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44131.24684027778</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -905,10 +911,8 @@
           <t>3639339742</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-10-26 09:59:41</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44130.41644675926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -980,10 +984,8 @@
           <t>3637882162</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-10-25 21:34:12</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44129.89875</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1051,10 +1053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-10-25 19:23:45</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44129.80815972222</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1118,10 +1118,8 @@
           <t>3632415229</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-10-25 18:58:49</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44129.79084490741</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1193,10 +1191,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-10-25 17:36:36</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44129.73375</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1264,10 +1260,8 @@
           <t>3636772361</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-10-25 16:25:55</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44129.68466435185</v>
       </c>
       <c r="I12" t="n">
         <v>1</v>
@@ -1331,10 +1325,8 @@
           <t>3632453968</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:48:46</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44129.65886574074</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1410,10 +1402,8 @@
           <t>3632499414</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:48:25</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44129.65862268519</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1489,10 +1479,8 @@
           <t>3636656552</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:48:00</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44129.65833333333</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1568,10 +1556,8 @@
           <t>3632499414</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:36:28</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44129.65032407407</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1647,10 +1633,8 @@
           <t>3632423067</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:35:43</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44129.64980324074</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1726,10 +1710,8 @@
           <t>3636532593</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:09:10</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44129.63136574074</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1789,10 +1771,8 @@
           <t>3632421151</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:05:18</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44129.62868055556</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1860,10 +1840,8 @@
           <t>3632421151</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-10-25 15:02:33</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44129.62677083333</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1935,10 +1913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-10-25 14:59:38</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44129.62474537037</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2002,10 +1978,8 @@
           <t>3636488354</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-10-25 14:55:23</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44129.62179398148</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2069,10 +2043,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-10-25 14:55:18</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44129.62173611111</v>
       </c>
       <c r="I23" t="n">
         <v>1</v>
@@ -2140,10 +2112,8 @@
           <t>3636483460</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-10-25 14:54:43</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44129.62133101852</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2207,10 +2177,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-10-25 13:28:55</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44129.56174768518</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2278,10 +2246,8 @@
           <t>3635727115</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-10-25 11:18:37</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44129.47126157407</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2357,10 +2323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-10-25 08:07:25</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44129.33848379629</v>
       </c>
       <c r="I27" t="n">
         <v>3</v>
@@ -2424,10 +2388,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-10-25 07:54:02</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44129.32918981482</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2487,10 +2449,8 @@
           <t>3635092281</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-10-25 06:47:50</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44129.28321759259</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2558,10 +2518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-10-25 02:52:02</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44129.11946759259</v>
       </c>
       <c r="I30" t="n">
         <v>3</v>
@@ -2637,10 +2595,8 @@
           <t>3634829317</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:23:14</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44129.05780092593</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2704,10 +2660,8 @@
           <t>3634824061</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:20:12</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44129.05569444445</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2771,10 +2725,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:13:13</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44129.0508449074</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2846,10 +2798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-10-25 01:07:37</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44129.04695601852</v>
       </c>
       <c r="I34" t="n">
         <v>1</v>
@@ -2913,10 +2863,8 @@
           <t>3633027419</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:30:22</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44129.02108796296</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2992,10 +2940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:30:13</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44129.0209837963</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3067,10 +3013,8 @@
           <t>3633027419</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-10-25 00:15:38</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44129.01085648148</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3137,10 +3081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:34:09</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44128.94038194444</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3216,10 +3158,8 @@
           <t>3634190918</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:32:34</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44128.93928240741</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3295,10 +3235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:09:18</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44128.923125</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3366,10 +3304,8 @@
           <t>3634072963</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:09:14</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44128.9230787037</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3437,10 +3373,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:07:20</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44128.92175925926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3508,10 +3442,8 @@
           <t>3634034120</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-10-24 22:01:01</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44128.91737268519</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3579,10 +3511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:56:54</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44128.91451388889</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3658,10 +3588,8 @@
           <t>3632957897</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-10-24 21:04:00</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44128.87777777778</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3737,10 +3665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:42:13</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44128.86265046296</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3812,10 +3738,8 @@
           <t>3633661557</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:32:39</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44128.85600694444</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3891,10 +3815,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-10-24 20:27:14</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44128.85224537037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3958,10 +3880,8 @@
           <t>3633478210</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:49:38</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44128.82613425926</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4025,10 +3945,8 @@
           <t>3633431626</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:36:28</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44128.81699074074</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4100,10 +4018,8 @@
           <t>3632419882</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:36:21</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44128.81690972222</v>
       </c>
       <c r="I51" t="n">
         <v>1</v>
@@ -4171,10 +4087,8 @@
           <t>3632374502</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:35:43</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44128.8164699074</v>
       </c>
       <c r="I52" t="n">
         <v>2</v>
@@ -4246,10 +4160,8 @@
           <t>3632618991</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:35:40</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44128.81643518519</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4321,10 +4233,8 @@
           <t>3632831097</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:15:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44128.80215277777</v>
       </c>
       <c r="I54" t="n">
         <v>2</v>
@@ -4392,10 +4302,8 @@
           <t>3633314398</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:13:07</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44128.80077546297</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4463,10 +4371,8 @@
           <t>3632713443</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:10:23</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44128.79887731482</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4538,10 +4444,8 @@
           <t>3633314398</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:09:19</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44128.79813657407</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4605,10 +4509,8 @@
           <t>3632957897</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:08:49</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44128.79778935185</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4676,10 +4578,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:07:28</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44128.79685185185</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4739,10 +4639,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:06:23</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44128.79609953704</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4814,10 +4712,8 @@
           <t>3633301393</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:05:08</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44128.79523148148</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4877,10 +4773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-10-24 19:01:31</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44128.7927199074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4948,10 +4842,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:58:52</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44128.79087962963</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5027,10 +4919,8 @@
           <t>3632893744</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:56:11</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44128.7890162037</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5094,10 +4984,8 @@
           <t>3633242584</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:51:49</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44128.7859837963</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5169,10 +5057,8 @@
           <t>3632957897</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:48:09</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44128.7834375</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5240,10 +5126,8 @@
           <t>3632713443</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:48:06</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44128.78340277778</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5311,10 +5195,8 @@
           <t>3633223802</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:47:30</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44128.78298611111</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5386,10 +5268,8 @@
           <t>3632404499</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:45:15</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44128.78142361111</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5465,10 +5345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:42:28</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44128.77949074074</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5536,10 +5414,8 @@
           <t>3633204309</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:42:27</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44128.77947916667</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5615,10 +5491,8 @@
           <t>3633192543</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:38:44</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44128.77689814815</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5694,10 +5568,8 @@
           <t>3633173696</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:34:12</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44128.77375</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5765,10 +5637,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:32:49</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44128.77278935185</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5836,10 +5706,8 @@
           <t>3633164236</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:32:20</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44128.77245370371</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5907,10 +5775,8 @@
           <t>3633122506</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:21:21</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44128.76482638889</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5974,10 +5840,8 @@
           <t>3632893744</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:20:42</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44128.764375</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6041,10 +5905,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:10:02</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44128.75696759259</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6112,10 +5974,8 @@
           <t>3633073551</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:09:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44128.75625</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6179,10 +6039,8 @@
           <t>3632957897</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:08:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44128.75616898148</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6250,10 +6108,8 @@
           <t>3633041302</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:05:40</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44128.75393518519</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6321,10 +6177,8 @@
           <t>3632431013</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:04:01</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44128.75278935185</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6388,10 +6242,8 @@
           <t>3632374117</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:03:16</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44128.75226851852</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6451,10 +6303,8 @@
           <t>3633052167</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:02:33</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44128.75177083333</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6518,10 +6368,8 @@
           <t>3633047080</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:02:16</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44128.75157407407</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6589,10 +6437,8 @@
           <t>3633041375</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:00:09</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44128.75010416667</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6656,10 +6502,8 @@
           <t>3633041302</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:00:06</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44128.75006944445</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6727,10 +6571,8 @@
           <t>3633033895</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-10-24 18:00:02</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44128.75002314815</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -6798,10 +6640,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:58:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44128.74922453704</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6873,10 +6713,8 @@
           <t>3633035792</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:57:55</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44128.74855324074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6940,10 +6778,8 @@
           <t>3633027419</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:57:06</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44128.74798611111</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7019,10 +6855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:56:58</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44128.74789351852</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7094,10 +6928,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:55:46</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44128.74706018518</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7169,10 +7001,8 @@
           <t>3632731090</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:53:32</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44128.74550925926</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7236,10 +7066,8 @@
           <t>3632807908</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:53:13</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44128.74528935185</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7311,10 +7139,8 @@
           <t>3632731090</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:50:43</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44128.74355324074</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7383,10 +7209,8 @@
           <t>3633005899</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:50:11</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44128.74318287037</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7458,10 +7282,8 @@
           <t>3632993711</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:48:29</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44128.74200231482</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7533,10 +7355,8 @@
           <t>3632988016</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:47:55</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44128.7416087963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7608,10 +7428,8 @@
           <t>3632983627</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:46:26</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44128.74057870371</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7675,10 +7493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:46:21</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44128.74052083334</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7742,10 +7558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:46:20</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44128.74050925926</v>
       </c>
       <c r="I102" t="n">
         <v>3</v>
@@ -7817,10 +7631,8 @@
           <t>3632419882</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:45:07</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44128.73966435185</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7892,10 +7704,8 @@
           <t>3632368661</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:44:27</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44128.73920138889</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7971,10 +7781,8 @@
           <t>3632959571</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:41:09</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44128.73690972223</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8050,10 +7858,8 @@
           <t>3632957897</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:39:50</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44128.73599537037</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8131,10 +7937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:38:10</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44128.73483796296</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8198,10 +8002,8 @@
           <t>3632951318</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:36:33</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44128.73371527778</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8273,10 +8075,8 @@
           <t>3632945159</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:33:38</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44128.73168981481</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8344,10 +8144,8 @@
           <t>3632933923</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:32:36</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44128.73097222222</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8415,10 +8213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:32:00</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44128.73055555556</v>
       </c>
       <c r="I111" t="n">
         <v>1</v>
@@ -8482,10 +8278,8 @@
           <t>3632926681</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:30:35</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44128.72957175926</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8557,10 +8351,8 @@
           <t>3632930692</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:30:06</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44128.72923611111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8624,10 +8416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:23:53</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44128.72491898148</v>
       </c>
       <c r="I114" t="n">
         <v>1</v>
@@ -8699,10 +8489,8 @@
           <t>3632893744</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:22:08</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44128.7237037037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8766,10 +8554,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:18:29</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44128.72116898148</v>
       </c>
       <c r="I116" t="n">
         <v>1</v>
@@ -8837,10 +8623,8 @@
           <t>3632872674</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:15:13</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44128.71890046296</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -8916,10 +8700,8 @@
           <t>3632853029</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:10:58</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44128.71594907407</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -8995,10 +8777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:07:15</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44128.71336805556</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9066,10 +8846,8 @@
           <t>3632831097</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:02:56</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44128.71037037037</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9133,10 +8911,8 @@
           <t>3632462845</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-10-24 17:02:37</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44128.71015046296</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9204,10 +8980,8 @@
           <t>3632813689</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:58:58</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44128.70761574074</v>
       </c>
       <c r="I122" t="n">
         <v>4</v>
@@ -9271,10 +9045,8 @@
           <t>3632807908</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:57:42</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44128.70673611111</v>
       </c>
       <c r="I123" t="n">
         <v>4</v>
@@ -9346,10 +9118,8 @@
           <t>3632811292</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:56:48</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44128.70611111111</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9413,10 +9183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:55:36</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44128.70527777778</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9492,10 +9260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:53:56</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44128.70412037037</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9563,10 +9329,8 @@
           <t>3632788393</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:51:26</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44128.70238425926</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9630,10 +9394,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:51:11</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44128.70221064815</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9697,10 +9459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:51:04</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44128.70212962963</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9768,10 +9528,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:48:40</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44128.70046296297</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9843,10 +9601,8 @@
           <t>3632412476</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:47:29</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44128.6996412037</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9918,10 +9674,8 @@
           <t>3632425849</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:45:22</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44128.6981712963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -9997,10 +9751,8 @@
           <t>3632753747</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:40:34</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44128.69483796296</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10068,10 +9820,8 @@
           <t>3632744983</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:38:50</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44128.69363425926</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10147,10 +9897,8 @@
           <t>3632744553</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:38:25</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44128.69334490741</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10218,10 +9966,8 @@
           <t>3632409246</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:34:14</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44128.69043981482</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10289,10 +10035,8 @@
           <t>3632684370</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:34:08</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44128.69037037037</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10356,10 +10100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:33:52</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44128.69018518519</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10423,10 +10165,8 @@
           <t>3632425849</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:32:38</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44128.6893287037</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10502,10 +10242,8 @@
           <t>3632731090</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:32:35</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44128.68929398148</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10569,10 +10307,8 @@
           <t>3632719530</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:31:00</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44128.68819444445</v>
       </c>
       <c r="I141" t="n">
         <v>1</v>
@@ -10636,10 +10372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:30:43</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44128.68799768519</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10707,10 +10441,8 @@
           <t>3632449620</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:30:04</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44128.6875462963</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10774,10 +10506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:29:46</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44128.68733796296</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10841,10 +10571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:28:51</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44128.68670138889</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10908,10 +10636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:28:39</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44128.6865625</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -10983,10 +10709,8 @@
           <t>3632713443</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:27:26</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44128.68571759259</v>
       </c>
       <c r="I147" t="n">
         <v>3</v>
@@ -11050,10 +10774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:27:00</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44128.68541666667</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11129,10 +10851,8 @@
           <t>3632712819</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:26:50</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44128.68530092593</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11204,10 +10924,8 @@
           <t>3632715083</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:26:32</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44128.68509259259</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11271,10 +10989,8 @@
           <t>3632704419</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:25:55</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44128.68466435185</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11338,10 +11054,8 @@
           <t>3632708669</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:25:48</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44128.68458333334</v>
       </c>
       <c r="I152" t="n">
         <v>5</v>
@@ -11405,10 +11119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:24:22</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44128.68358796297</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11472,10 +11184,8 @@
           <t>3632699151</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:23:15</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44128.6828125</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11547,10 +11257,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:22:04</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44128.68199074074</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11622,10 +11330,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:21:55</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44128.68188657407</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11693,10 +11399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:19:32</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44128.68023148148</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11756,10 +11460,8 @@
           <t>3632692312</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:19:25</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44128.68015046296</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11835,10 +11537,8 @@
           <t>3632684370</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:18:21</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44128.67940972222</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11906,10 +11606,8 @@
           <t>3632374062</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:11:37</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44128.6747337963</v>
       </c>
       <c r="I160" t="n">
         <v>1</v>
@@ -11973,10 +11671,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:09:21</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44128.67315972222</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12048,10 +11744,8 @@
           <t>3632414522</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:08:06</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44128.67229166667</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12119,10 +11813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:07:58</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44128.67219907408</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12198,10 +11890,8 @@
           <t>3632460327</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:07:16</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44128.67171296296</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12273,10 +11963,8 @@
           <t>3632414522</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:07:01</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44128.67153935185</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12348,10 +12036,8 @@
           <t>3632374502</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:06:02</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44128.67085648148</v>
       </c>
       <c r="I166" t="n">
         <v>2</v>
@@ -12419,10 +12105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:03:16</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44128.66893518518</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12490,10 +12174,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:03:01</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44128.66876157407</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12561,10 +12243,8 @@
           <t>3632485342</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:02:53</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44128.66866898148</v>
       </c>
       <c r="I169" t="n">
         <v>1</v>
@@ -12632,10 +12312,8 @@
           <t>3632381494</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:02:09</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44128.66815972222</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12699,10 +12377,8 @@
           <t>3632638092</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:01:52</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44128.66796296297</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12766,10 +12442,8 @@
           <t>3632629670</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:55</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44128.66730324074</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12837,10 +12511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-10-24 16:00:52</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44128.66726851852</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12916,10 +12588,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:57:57</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44128.66524305556</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -12987,10 +12657,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:57:12</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44128.66472222222</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13063,10 +12731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:57:01</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44128.66459490741</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13134,10 +12800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:56:21</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44128.66413194445</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13205,10 +12869,8 @@
           <t>3632618991</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:56:09</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44128.66399305555</v>
       </c>
       <c r="I178" t="n">
         <v>2</v>
@@ -13284,10 +12946,8 @@
           <t>3632462845</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:54:00</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44128.6625</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13359,10 +13019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:53:28</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44128.66212962963</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13434,10 +13092,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:52:13</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44128.66126157407</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13513,10 +13169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:51:58</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44128.66108796297</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13584,10 +13238,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:49:00</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44128.65902777778</v>
       </c>
       <c r="I183" t="n">
         <v>3</v>
@@ -13663,10 +13315,8 @@
           <t>3632431013</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:47:46</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44128.65817129629</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13743,10 +13393,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:46:52</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44128.65754629629</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13818,10 +13466,8 @@
           <t>3632431013</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:45:12</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44128.65638888889</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13889,10 +13535,8 @@
           <t>3632590615</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:43:41</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44128.65533564815</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -13961,10 +13605,8 @@
           <t>3632409246</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:42:11</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44128.65429398148</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14040,10 +13682,8 @@
           <t>3632567171</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:42:11</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44128.65429398148</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14111,10 +13751,8 @@
           <t>3632497534</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:41:53</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44128.65408564815</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14182,10 +13820,8 @@
           <t>3632578621</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:41:29</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44128.65380787037</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14253,10 +13889,8 @@
           <t>3632482786</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:41:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44128.65358796297</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14324,10 +13958,8 @@
           <t>3632527766</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:40:23</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44128.65304398148</v>
       </c>
       <c r="I193" t="n">
         <v>1</v>
@@ -14403,10 +14035,8 @@
           <t>3632567171</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:37:25</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44128.65098379629</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14470,10 +14100,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:36:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44128.65025462963</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14541,10 +14169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:36:11</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44128.65012731482</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14620,10 +14246,8 @@
           <t>3632462845</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:36:02</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44128.65002314815</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -14699,10 +14323,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:35:01</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44128.64931712963</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14774,10 +14396,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:34:47</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44128.64915509259</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14849,10 +14469,8 @@
           <t>3632558191</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:34:15</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44128.64878472222</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14916,10 +14534,8 @@
           <t>3632553978</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:33:57</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44128.64857638889</v>
       </c>
       <c r="I201" t="n">
         <v>2</v>
@@ -14987,10 +14603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:32:59</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44128.64790509259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15058,10 +14672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:56</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44128.64578703704</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15137,10 +14749,8 @@
           <t>3632543348</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:29:02</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44128.64516203704</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15216,10 +14826,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:28:55</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44128.64508101852</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15287,10 +14895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:27:35</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44128.6441550926</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15354,10 +14960,8 @@
           <t>3632485342</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:26:53</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44128.64366898148</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15425,10 +15029,8 @@
           <t>3632545169</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:26:48</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44128.64361111111</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15496,10 +15098,8 @@
           <t>3632459394</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:26:31</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44128.64341435185</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15567,10 +15167,8 @@
           <t>3632381494</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:26:06</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44128.643125</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15646,10 +15244,8 @@
           <t>3632527766</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:24:51</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44128.64225694445</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -15718,10 +15314,8 @@
           <t>3632533101</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:24:34</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44128.64206018519</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15797,10 +15391,8 @@
           <t>3632527766</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:23:00</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44128.64097222222</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15872,10 +15464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:56</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44128.64092592592</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15939,10 +15529,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:22:01</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44128.64028935185</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16014,10 +15602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:21:37</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44128.64001157408</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16089,10 +15675,8 @@
           <t>3632526418</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:21:32</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44128.63995370371</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16164,10 +15748,8 @@
           <t>3632521724</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:30</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44128.63923611111</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16239,10 +15821,8 @@
           <t>3632376989</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:19</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44128.6391087963</v>
       </c>
       <c r="I219" t="n">
         <v>9</v>
@@ -16310,10 +15890,8 @@
           <t>3632449620</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:20:01</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44128.63890046296</v>
       </c>
       <c r="I220" t="n">
         <v>5</v>
@@ -16385,10 +15963,8 @@
           <t>3632513869</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:18:53</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44128.63811342593</v>
       </c>
       <c r="I221" t="n">
         <v>1</v>
@@ -16452,10 +16028,8 @@
           <t>3632386554</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:18:48</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44128.63805555556</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16527,10 +16101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:18:16</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44128.63768518518</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16606,10 +16178,8 @@
           <t>3632512064</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:17:02</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44128.6368287037</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16677,10 +16247,8 @@
           <t>3632508410</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44128.63674768519</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16748,10 +16316,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:31</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44128.6364699074</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16819,10 +16385,8 @@
           <t>3632409246</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:12</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44128.63625</v>
       </c>
       <c r="I227" t="n">
         <v>5</v>
@@ -16886,10 +16450,8 @@
           <t>3632515392</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:11</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44128.63623842593</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16965,10 +16527,8 @@
           <t>3632511241</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:16:11</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44128.63623842593</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -17032,10 +16592,8 @@
           <t>3632419882</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:15:27</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44128.63572916666</v>
       </c>
       <c r="I230" t="n">
         <v>8</v>
@@ -17103,10 +16661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:14:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44128.63532407407</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17174,10 +16730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:14:41</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44128.63519675926</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17245,10 +16799,8 @@
           <t>3632499414</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:14:08</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44128.63481481482</v>
       </c>
       <c r="I233" t="n">
         <v>7</v>
@@ -17324,10 +16876,8 @@
           <t>3632497534</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:12:03</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44128.63336805555</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17403,10 +16953,8 @@
           <t>3632485342</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:11:41</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44128.63311342592</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17474,10 +17022,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:11:04</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44128.63268518518</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17541,10 +17087,8 @@
           <t>3632484603</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:08:58</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44128.63122685185</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17612,10 +17156,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:08:57</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44128.63121527778</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17683,10 +17225,8 @@
           <t>3632425849</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:08:42</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44128.63104166667</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17754,10 +17294,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:08:37</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44128.6309837963</v>
       </c>
       <c r="I240" t="n">
         <v>1</v>
@@ -17833,10 +17371,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:56</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44128.62981481481</v>
       </c>
       <c r="I241" t="n">
         <v>2</v>
@@ -17912,10 +17448,8 @@
           <t>3632482786</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:56</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44128.62981481481</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17991,10 +17525,8 @@
           <t>3632443021</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:54</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44128.62979166667</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18062,10 +17594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:42</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44128.62965277778</v>
       </c>
       <c r="I244" t="n">
         <v>10</v>
@@ -18135,10 +17665,8 @@
           <t>3632478912</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:34</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44128.62956018518</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18206,10 +17734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:21</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44128.62940972222</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18285,10 +17811,8 @@
           <t>3632478408</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:06:00</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44128.62916666667</v>
       </c>
       <c r="I247" t="n">
         <v>1</v>
@@ -18360,10 +17884,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:05:53</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44128.62908564815</v>
       </c>
       <c r="I248" t="n">
         <v>3</v>
@@ -18427,10 +17949,8 @@
           <t>3632485342</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:05:17</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44128.62866898148</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18502,10 +18022,8 @@
           <t>3632473083</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:02:53</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44128.62700231482</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18581,10 +18099,8 @@
           <t>3632407729</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:53</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44128.62630787037</v>
       </c>
       <c r="I251" t="n">
         <v>4</v>
@@ -18660,10 +18176,8 @@
           <t>3632400778</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:16</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44128.62587962963</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18727,10 +18241,8 @@
           <t>3632400778</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:01:06</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44128.62576388889</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18794,10 +18306,8 @@
           <t>3632466768</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:31</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44128.62535879629</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -18865,10 +18375,8 @@
           <t>3632381494</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:30</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44128.62534722222</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18940,10 +18448,8 @@
           <t>3632470813</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:26</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44128.62530092592</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19021,10 +18527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:08</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44128.62509259259</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19088,10 +18592,8 @@
           <t>3632462845</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-10-24 15:00:04</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44128.6250462963</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19159,10 +18661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:59:08</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44128.62439814815</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19230,10 +18730,8 @@
           <t>3632459394</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:58:47</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44128.62415509259</v>
       </c>
       <c r="I260" t="n">
         <v>1</v>
@@ -19309,10 +18807,8 @@
           <t>3632454682</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:58:19</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44128.62383101852</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19376,10 +18872,8 @@
           <t>3632458828</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:58:11</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44128.62373842593</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19451,10 +18945,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:58:02</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44128.62363425926</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19518,10 +19010,8 @@
           <t>3632460873</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:56</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44128.62356481481</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19593,10 +19083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:37</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44128.62334490741</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19660,10 +19148,8 @@
           <t>3632453968</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:34</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44128.62331018518</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19735,10 +19221,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:30</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44128.62326388889</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19806,10 +19290,8 @@
           <t>3632460327</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:22</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44128.6231712963</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19885,10 +19367,8 @@
           <t>3632460227</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:14</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44128.62307870371</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -19961,10 +19441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:57:01</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44128.62292824074</v>
       </c>
       <c r="I270" t="n">
         <v>1</v>
@@ -20036,10 +19514,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:44</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44128.62273148148</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20103,10 +19579,8 @@
           <t>3632432899</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:36</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44128.62263888889</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20174,10 +19648,8 @@
           <t>3632449620</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:36</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44128.62263888889</v>
       </c>
       <c r="I273" t="n">
         <v>5</v>
@@ -20253,10 +19725,8 @@
           <t>3632449473</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:28</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44128.6225462963</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20328,10 +19798,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:19</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44128.62244212963</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20407,10 +19875,8 @@
           <t>3632449234</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:13</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44128.62237268518</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20487,10 +19953,8 @@
           <t>3632367847</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:13</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44128.62237268518</v>
       </c>
       <c r="I277" t="n">
         <v>1</v>
@@ -20562,10 +20026,8 @@
           <t>3632457059</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:56:10</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44128.62233796297</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20629,10 +20091,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:55:56</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44128.62217592593</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20700,10 +20160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:54:59</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44128.6215162037</v>
       </c>
       <c r="I280" t="n">
         <v>1</v>
@@ -20767,10 +20225,8 @@
           <t>3632447659</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:54:27</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44128.62114583333</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20843,10 +20299,8 @@
           <t>3632455398</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:54:20</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44128.62106481481</v>
       </c>
       <c r="I282" t="n">
         <v>12</v>
@@ -20914,10 +20368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:54:12</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44128.62097222222</v>
       </c>
       <c r="I283" t="n">
         <v>22</v>
@@ -20985,10 +20437,8 @@
           <t>3632368661</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:58</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44128.62011574074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21052,10 +20502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:39</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44128.61989583333</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21127,10 +20575,8 @@
           <t>3632419882</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:38</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44128.61988425926</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21202,10 +20648,8 @@
           <t>3632443710</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:30</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44128.61979166666</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21265,10 +20709,8 @@
           <t>3632443491</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:52:18</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44128.61965277778</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21340,10 +20782,8 @@
           <t>3632443021</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:51:49</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44128.61931712963</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21407,10 +20847,8 @@
           <t>3632438099</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:51:18</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44128.61895833333</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21482,10 +20920,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:50:51</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44128.61864583333</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21557,10 +20993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:50:12</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44128.61819444445</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21632,10 +21066,8 @@
           <t>3632432899</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:49:26</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44128.61766203704</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21712,10 +21144,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:48:18</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44128.616875</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21784,10 +21214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:48:12</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44128.61680555555</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21855,10 +21283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:48:00</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44128.61666666667</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21926,10 +21352,8 @@
           <t>3632429436</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:57</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44128.61663194445</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
@@ -21989,10 +21413,8 @@
           <t>3632413769</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:38</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44128.61641203704</v>
       </c>
       <c r="I298" t="n">
         <v>2</v>
@@ -22069,10 +21491,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:37</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44128.61640046296</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22136,10 +21556,8 @@
           <t>3632424659</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:35</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44128.61637731481</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22203,10 +21621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:32</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44128.61634259259</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22282,10 +21698,8 @@
           <t>3632431013</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:24</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44128.61625</v>
       </c>
       <c r="I302" t="n">
         <v>3</v>
@@ -22362,10 +21776,8 @@
           <t>3632413769</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:47:02</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44128.61599537037</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22433,10 +21845,8 @@
           <t>3632428352</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:46</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44128.61581018518</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22506,10 +21916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:38</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44128.61571759259</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22581,10 +21989,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:26</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44128.61557870371</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22652,10 +22058,8 @@
           <t>3632419882</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:09</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44128.61538194444</v>
       </c>
       <c r="I307" t="n">
         <v>25</v>
@@ -22723,10 +22127,8 @@
           <t>3632419823</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:46:06</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44128.61534722222</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22794,10 +22196,8 @@
           <t>3632413769</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:52</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44128.61518518518</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -22861,10 +22261,8 @@
           <t>3632423067</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44128.61517361111</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22928,10 +22326,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:44</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44128.61509259259</v>
       </c>
       <c r="I311" t="n">
         <v>13</v>
@@ -22991,10 +22387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:25</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44128.61487268518</v>
       </c>
       <c r="I312" t="n">
         <v>53</v>
@@ -23062,10 +22456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:25</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44128.61487268518</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23133,10 +22525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:45:22</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44128.61483796296</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23200,10 +22590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:44:14</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44128.61405092593</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23282,10 +22670,8 @@
           <t>3632425849</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:59</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44128.61387731481</v>
       </c>
       <c r="I316" t="n">
         <v>2</v>
@@ -23361,10 +22747,8 @@
           <t>3632421308</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:56</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44128.61384259259</v>
       </c>
       <c r="I317" t="n">
         <v>1</v>
@@ -23432,10 +22816,8 @@
           <t>3632417728</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:50</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44128.61377314815</v>
       </c>
       <c r="I318" t="n">
         <v>1</v>
@@ -23499,10 +22881,8 @@
           <t>3632421151</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:46</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44128.61372685185</v>
       </c>
       <c r="I319" t="n">
         <v>14</v>
@@ -23570,10 +22950,8 @@
           <t>3632417543</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:39</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44128.61364583333</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -23649,10 +23027,8 @@
           <t>3632415229</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:35</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44128.61359953704</v>
       </c>
       <c r="I321" t="n">
         <v>1</v>
@@ -23716,10 +23092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:18</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44128.61340277778</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -23791,10 +23165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:17</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44128.6133912037</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23862,10 +23234,8 @@
           <t>3632420474</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:43:04</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44128.61324074074</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23933,10 +23303,8 @@
           <t>3632414837</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:55</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44128.61313657407</v>
       </c>
       <c r="I325" t="n">
         <v>10</v>
@@ -24000,10 +23368,8 @@
           <t>3632420252</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:49</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44128.61306712963</v>
       </c>
       <c r="I326" t="n">
         <v>4</v>
@@ -24079,10 +23445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:47</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44128.61304398148</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24150,10 +23514,8 @@
           <t>3632413769</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:44</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44128.61300925926</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24221,10 +23583,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:42</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44128.61298611111</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24292,10 +23652,8 @@
           <t>3632414522</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:33</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44128.61288194444</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24363,10 +23721,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:16</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44128.61268518519</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24438,10 +23794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:14</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44128.61266203703</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24517,10 +23871,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:42:00</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44128.6125</v>
       </c>
       <c r="I333" t="n">
         <v>45</v>
@@ -24596,10 +23948,8 @@
           <t>3632409246</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:47</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44128.61234953703</v>
       </c>
       <c r="I334" t="n">
         <v>41</v>
@@ -24663,10 +24013,8 @@
           <t>3632413769</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:45</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44128.61232638889</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24730,10 +24078,8 @@
           <t>3632367847</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:29</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44128.6121412037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24805,10 +24151,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:15</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44128.61197916666</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24876,10 +24220,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:13</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44128.61195601852</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
@@ -24947,10 +24289,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:11</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44128.61193287037</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25018,10 +24358,8 @@
           <t>3632415229</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:41:05</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44128.61186342593</v>
       </c>
       <c r="I340" t="n">
         <v>3</v>
@@ -25097,10 +24435,8 @@
           <t>3632386962</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:59</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44128.61179398148</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25172,10 +24508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:56</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44128.61175925926</v>
       </c>
       <c r="I342" t="n">
         <v>1</v>
@@ -25235,10 +24569,8 @@
           <t>3632412997</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:52</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44128.61171296296</v>
       </c>
       <c r="I343" t="n">
         <v>1</v>
@@ -25314,10 +24646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:41</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44128.61158564815</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25377,10 +24707,8 @@
           <t>3632404499</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44128.61131944445</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -25452,10 +24780,8 @@
           <t>3632412476</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:16</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44128.61129629629</v>
       </c>
       <c r="I346" t="n">
         <v>16</v>
@@ -25527,10 +24853,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:15</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44128.61128472222</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25590,10 +24914,8 @@
           <t>3632374117</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:14</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44128.61127314815</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25661,10 +24983,8 @@
           <t>3632407740</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:12</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44128.61125</v>
       </c>
       <c r="I349" t="n">
         <v>2</v>
@@ -25736,10 +25056,8 @@
           <t>3632407729</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:11</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44128.61123842592</v>
       </c>
       <c r="I350" t="n">
         <v>28</v>
@@ -25815,10 +25133,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44128.61119212963</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25890,10 +25206,8 @@
           <t>3632404326</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:40:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44128.61118055556</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25957,10 +25271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:54</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44128.61104166666</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26036,10 +25348,8 @@
           <t>3632407243</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:42</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44128.61090277778</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26115,10 +25425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:38</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44128.61085648148</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26182,10 +25490,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:32</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44128.61078703704</v>
       </c>
       <c r="I356" t="n">
         <v>2</v>
@@ -26257,10 +25563,8 @@
           <t>3632386962</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:39:01</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44128.61042824074</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26328,10 +25632,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:59</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44128.61040509259</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26391,10 +25693,8 @@
           <t>3632400778</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:50</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44128.61030092592</v>
       </c>
       <c r="I359" t="n">
         <v>2</v>
@@ -26466,10 +25766,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:38</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44128.61016203704</v>
       </c>
       <c r="I360" t="n">
         <v>4</v>
@@ -26537,10 +25835,8 @@
           <t>3632402803</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:25</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44128.61001157408</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26616,10 +25912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:21</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44128.60996527778</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26695,10 +25989,8 @@
           <t>3632405902</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:14</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44128.60988425926</v>
       </c>
       <c r="I363" t="n">
         <v>2</v>
@@ -26770,10 +26062,8 @@
           <t>3632405861</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:38:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44128.60984953704</v>
       </c>
       <c r="I364" t="n">
         <v>38</v>
@@ -26849,10 +26139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:56</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44128.60967592592</v>
       </c>
       <c r="I365" t="n">
         <v>4</v>
@@ -26924,10 +26212,8 @@
           <t>3632405646</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:56</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44128.60967592592</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -26991,10 +26277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:05</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44128.60908564815</v>
       </c>
       <c r="I367" t="n">
         <v>0</v>
@@ -27062,10 +26346,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:37:00</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44128.60902777778</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27133,10 +26415,8 @@
           <t>3632394751</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:56</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44128.60898148148</v>
       </c>
       <c r="I369" t="n">
         <v>1</v>
@@ -27203,10 +26483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:48</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44128.60888888889</v>
       </c>
       <c r="I370" t="n">
         <v>123</v>
@@ -27278,10 +26556,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:45</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44128.60885416667</v>
       </c>
       <c r="I371" t="n">
         <v>11</v>
@@ -27353,10 +26629,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:33</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44128.60871527778</v>
       </c>
       <c r="I372" t="n">
         <v>1</v>
@@ -27424,10 +26698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:33</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44128.60871527778</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27499,10 +26771,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:27</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44128.60864583333</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27580,10 +26850,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:20</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44128.60856481481</v>
       </c>
       <c r="I375" t="n">
         <v>10</v>
@@ -27651,10 +26919,8 @@
           <t>3632400778</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:16</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44128.60851851852</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27718,10 +26984,8 @@
           <t>3632400609</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:36:04</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44128.60837962963</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27797,10 +27061,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:39</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44128.60809027778</v>
       </c>
       <c r="I378" t="n">
         <v>2</v>
@@ -27868,10 +27130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:31</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44128.60799768518</v>
       </c>
       <c r="I379" t="n">
         <v>0</v>
@@ -27942,10 +27202,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:04</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44128.60768518518</v>
       </c>
       <c r="I380" t="n">
         <v>341</v>
@@ -28005,10 +27263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:03</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44128.60767361111</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28076,10 +27332,8 @@
           <t>3632397719</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:35:03</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44128.60767361111</v>
       </c>
       <c r="I382" t="n">
         <v>2</v>
@@ -28155,10 +27409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:55</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44128.60758101852</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28226,10 +27478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:43</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44128.60744212963</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28301,10 +27551,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:41</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44128.60741898148</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28372,10 +27620,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:36</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44128.60736111111</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28447,10 +27693,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:32</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44128.60731481481</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28522,10 +27766,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:20</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44128.60717592593</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28589,10 +27831,8 @@
           <t>3632392243</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:34:14</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44128.60710648148</v>
       </c>
       <c r="I389" t="n">
         <v>2</v>
@@ -28668,10 +27908,8 @@
           <t>3632392006</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:58</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44128.6069212963</v>
       </c>
       <c r="I390" t="n">
         <v>1</v>
@@ -28743,10 +27981,8 @@
           <t>3632388670</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:54</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44128.606875</v>
       </c>
       <c r="I391" t="n">
         <v>4</v>
@@ -28810,10 +28046,8 @@
           <t>3632385678</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:47</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44128.60679398148</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -28885,10 +28119,8 @@
           <t>3632374117</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:47</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44128.60679398148</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -28956,10 +28188,8 @@
           <t>3632388295</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:31</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44128.6066087963</v>
       </c>
       <c r="I394" t="n">
         <v>2</v>
@@ -29035,10 +28265,8 @@
           <t>3632391468</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:27</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44128.6065625</v>
       </c>
       <c r="I395" t="n">
         <v>20</v>
@@ -29110,10 +28338,8 @@
           <t>3632367847</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:33:16</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44128.60643518518</v>
       </c>
       <c r="I396" t="n">
         <v>5</v>
@@ -29181,10 +28407,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:58</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44128.60622685185</v>
       </c>
       <c r="I397" t="n">
         <v>1</v>
@@ -29260,10 +28484,8 @@
           <t>3632387718</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:55</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44128.60619212963</v>
       </c>
       <c r="I398" t="n">
         <v>2</v>
@@ -29327,10 +28549,8 @@
           <t>3632395702</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:53</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44128.60616898148</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29406,10 +28626,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:36</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44128.60597222222</v>
       </c>
       <c r="I400" t="n">
         <v>1</v>
@@ -29485,10 +28703,8 @@
           <t>3632385678</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:27</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44128.60586805556</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29557,10 +28773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:21</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44128.60579861111</v>
       </c>
       <c r="I402" t="n">
         <v>58</v>
@@ -29632,10 +28846,8 @@
           <t>3632374117</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:18</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44128.60576388889</v>
       </c>
       <c r="I403" t="n">
         <v>3</v>
@@ -29699,10 +28911,8 @@
           <t>3632395072</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:11</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44128.60568287037</v>
       </c>
       <c r="I404" t="n">
         <v>1</v>
@@ -29766,10 +28976,8 @@
           <t>3632386962</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:03</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44128.60559027778</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -29841,10 +29049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:32:02</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44128.6055787037</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29916,10 +29122,8 @@
           <t>3632384753</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:51</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44128.60545138889</v>
       </c>
       <c r="I407" t="n">
         <v>6</v>
@@ -29995,10 +29199,8 @@
           <t>3632386704</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:47</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44128.6054050926</v>
       </c>
       <c r="I408" t="n">
         <v>2</v>
@@ -30062,10 +29264,8 @@
           <t>3632385678</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:42</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44128.60534722222</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30137,10 +29337,8 @@
           <t>3632386554</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:35</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44128.6052662037</v>
       </c>
       <c r="I410" t="n">
         <v>44</v>
@@ -30200,10 +29398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:22</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44128.60511574074</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30271,10 +29467,8 @@
           <t>3632379519</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:21</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44128.60510416667</v>
       </c>
       <c r="I412" t="n">
         <v>11</v>
@@ -30338,10 +29532,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:12</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44128.605</v>
       </c>
       <c r="I413" t="n">
         <v>1</v>
@@ -30417,10 +29609,8 @@
           <t>3632381494</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:05</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44128.60491898148</v>
       </c>
       <c r="I414" t="n">
         <v>5</v>
@@ -30496,10 +29686,8 @@
           <t>3632379235</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:05</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44128.60491898148</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30563,10 +29751,8 @@
           <t>3632386059</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:02</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44128.60488425926</v>
       </c>
       <c r="I416" t="n">
         <v>1</v>
@@ -30642,10 +29828,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:31:00</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44128.60486111111</v>
       </c>
       <c r="I417" t="n">
         <v>0</v>
@@ -30709,10 +29893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:59</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44128.60484953703</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30780,10 +29962,8 @@
           <t>3632383936</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:57</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44128.60482638889</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30851,10 +30031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:44</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44128.60467592593</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30924,10 +30102,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:41</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44128.6046412037</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
@@ -30995,10 +30171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:38</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44128.60460648148</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
@@ -31070,10 +30244,8 @@
           <t>3632385678</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:37</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44128.60459490741</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31141,10 +30313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:26</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44128.6044675926</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31208,10 +30378,8 @@
           <t>3632385528</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:26</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44128.6044675926</v>
       </c>
       <c r="I425" t="n">
         <v>24</v>
@@ -31275,10 +30443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:09</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44128.60427083333</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31346,10 +30512,8 @@
           <t>3632378254</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:30:00</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44128.60416666666</v>
       </c>
       <c r="I427" t="n">
         <v>1</v>
@@ -31425,10 +30589,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:59</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44128.60415509259</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31500,10 +30662,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:47</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44128.6040162037</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
@@ -31571,10 +30731,8 @@
           <t>3632374884</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:46</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44128.60400462963</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
@@ -31651,10 +30809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:38</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44128.60391203704</v>
       </c>
       <c r="I431" t="n">
         <v>1</v>
@@ -31730,10 +30886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:22</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44128.60372685185</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31801,10 +30955,8 @@
           <t>3632374502</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:20</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44128.6037037037</v>
       </c>
       <c r="I433" t="n">
         <v>32</v>
@@ -31872,10 +31024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:16</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44128.60365740741</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
@@ -31951,10 +31101,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:11</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44128.60359953704</v>
       </c>
       <c r="I435" t="n">
         <v>9</v>
@@ -32030,10 +31178,8 @@
           <t>3632374190</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:29:01</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44128.60348379629</v>
       </c>
       <c r="I436" t="n">
         <v>38</v>
@@ -32105,10 +31251,8 @@
           <t>3632374117</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:56</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44128.60342592592</v>
       </c>
       <c r="I437" t="n">
         <v>7</v>
@@ -32176,10 +31320,8 @@
           <t>3632374062</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:52</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44128.60337962963</v>
       </c>
       <c r="I438" t="n">
         <v>3</v>
@@ -32248,10 +31390,8 @@
           <t>3632376989</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:40</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44128.60324074074</v>
       </c>
       <c r="I439" t="n">
         <v>87</v>
@@ -32323,10 +31463,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:39</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44128.60322916666</v>
       </c>
       <c r="I440" t="n">
         <v>1</v>
@@ -32390,10 +31528,8 @@
           <t>3632376883</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:33</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44128.60315972222</v>
       </c>
       <c r="I441" t="n">
         <v>11</v>
@@ -32461,10 +31597,8 @@
           <t>3632381494</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:18</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44128.60298611111</v>
       </c>
       <c r="I442" t="n">
         <v>35</v>
@@ -32524,10 +31658,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:18</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44128.60298611111</v>
       </c>
       <c r="I443" t="n">
         <v>0</v>
@@ -32595,10 +31727,8 @@
           <t>3632376587</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:14</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44128.60293981482</v>
       </c>
       <c r="I444" t="n">
         <v>4</v>
@@ -32670,10 +31800,8 @@
           <t>3632381406</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:12</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44128.60291666666</v>
       </c>
       <c r="I445" t="n">
         <v>1</v>
@@ -32745,10 +31873,8 @@
           <t>3632381352</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:28:09</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44128.60288194445</v>
       </c>
       <c r="I446" t="n">
         <v>1</v>
@@ -32816,10 +31942,8 @@
           <t>3632367847</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:47</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44128.60262731482</v>
       </c>
       <c r="I447" t="n">
         <v>15</v>
@@ -32891,10 +32015,8 @@
           <t>3632376150</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:46</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44128.60261574074</v>
       </c>
       <c r="I448" t="n">
         <v>9</v>
@@ -32962,10 +32084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:43</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44128.60258101852</v>
       </c>
       <c r="I449" t="n">
         <v>28</v>
@@ -33041,10 +32161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:36</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44128.6025</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33120,10 +32238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:32</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44128.6024537037</v>
       </c>
       <c r="I451" t="n">
         <v>15</v>
@@ -33191,10 +32307,8 @@
           <t>3632375836</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44128.60238425926</v>
       </c>
       <c r="I452" t="n">
         <v>9</v>
@@ -33258,10 +32372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:19</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44128.60230324074</v>
       </c>
       <c r="I453" t="n">
         <v>2</v>
@@ -33325,10 +32437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:13</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44128.60223379629</v>
       </c>
       <c r="I454" t="n">
         <v>0</v>
@@ -33392,10 +32502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:27:08</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44128.60217592592</v>
       </c>
       <c r="I455" t="n">
         <v>0</v>
@@ -33467,10 +32575,8 @@
           <t>3632375384</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:56</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44128.60203703704</v>
       </c>
       <c r="I456" t="n">
         <v>4</v>
@@ -33538,10 +32644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:51</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44128.60197916667</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33617,10 +32721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:45</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44128.60190972222</v>
       </c>
       <c r="I458" t="n">
         <v>1</v>
@@ -33688,10 +32790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:42</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44128.601875</v>
       </c>
       <c r="I459" t="n">
         <v>1</v>
@@ -33755,10 +32855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:20</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44128.60162037037</v>
       </c>
       <c r="I460" t="n">
         <v>0</v>
@@ -33826,10 +32924,8 @@
           <t>3632364596</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:08</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44128.60148148148</v>
       </c>
       <c r="I461" t="n">
         <v>10</v>
@@ -33903,10 +32999,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:02</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44128.60141203704</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -33978,10 +33072,8 @@
           <t>3632364501</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:26:02</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44128.60141203704</v>
       </c>
       <c r="I463" t="n">
         <v>2</v>
@@ -34049,10 +33141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:57</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44128.60135416667</v>
       </c>
       <c r="I464" t="n">
         <v>1</v>
@@ -34124,10 +33214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:50</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44128.60127314815</v>
       </c>
       <c r="I465" t="n">
         <v>0</v>
@@ -34191,10 +33279,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:49</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44128.60126157408</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34270,10 +33356,8 @@
           <t>3632369189</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:49</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44128.60126157408</v>
       </c>
       <c r="I467" t="n">
         <v>23</v>
@@ -34341,10 +33425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:34</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44128.60108796296</v>
       </c>
       <c r="I468" t="n">
         <v>420</v>
@@ -34420,10 +33502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:33</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44128.60107638889</v>
       </c>
       <c r="I469" t="n">
         <v>24</v>
@@ -34487,10 +33567,8 @@
           <t>3632370967</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:32</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44128.60106481481</v>
       </c>
       <c r="I470" t="n">
         <v>26</v>
@@ -34566,10 +33644,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:29</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44128.60103009259</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34638,10 +33714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:24</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44128.60097222222</v>
       </c>
       <c r="I472" t="n">
         <v>17</v>
@@ -34709,10 +33783,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:24</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44128.60097222222</v>
       </c>
       <c r="I473" t="n">
         <v>9</v>
@@ -34776,10 +33848,8 @@
           <t>3632368661</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:15</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44128.60086805555</v>
       </c>
       <c r="I474" t="n">
         <v>70</v>
@@ -34855,10 +33925,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:11</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44128.60082175926</v>
       </c>
       <c r="I475" t="n">
         <v>63</v>
@@ -34922,10 +33990,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:08</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44128.60078703704</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -34985,10 +34051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:25:05</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44128.60075231481</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35056,10 +34120,8 @@
           <t>3632368287</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:51</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44128.60059027778</v>
       </c>
       <c r="I478" t="n">
         <v>28</v>
@@ -35123,10 +34185,8 @@
           <t>3632363055</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:30</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44128.60034722222</v>
       </c>
       <c r="I479" t="n">
         <v>1</v>
@@ -35194,10 +34254,8 @@
           <t>3632367954</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:29</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44128.60033564815</v>
       </c>
       <c r="I480" t="n">
         <v>2</v>
@@ -35269,10 +34327,8 @@
           <t>3632367847</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:22</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44128.60025462963</v>
       </c>
       <c r="I481" t="n">
         <v>187</v>
@@ -35348,10 +34404,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:19</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44128.60021990741</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35419,10 +34473,8 @@
           <t>3632359688</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:24:10</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44128.60011574074</v>
       </c>
       <c r="I483" t="n">
         <v>1</v>
@@ -35491,10 +34543,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:55</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44128.59994212963</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35564,10 +34614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:50</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44128.59988425926</v>
       </c>
       <c r="I485" t="n">
         <v>195</v>
@@ -35639,10 +34687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:48</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44128.59986111111</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35718,10 +34764,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:46</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44128.59983796296</v>
       </c>
       <c r="I487" t="n">
         <v>2</v>
@@ -35789,10 +34833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:45</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44128.59982638889</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35852,10 +34894,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:31</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44128.59966435185</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -35923,10 +34963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:27</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44128.59961805555</v>
       </c>
       <c r="I490" t="n">
         <v>9</v>
@@ -35994,10 +35032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:27</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44128.59961805555</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36061,10 +35097,8 @@
           <t>3632361974</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:22</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44128.59956018518</v>
       </c>
       <c r="I492" t="n">
         <v>15</v>
@@ -36141,10 +35175,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:20</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44128.59953703704</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36216,10 +35248,8 @@
           <t>3632361164</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:19</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44128.59952546296</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36296,10 +35326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:14</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44128.59946759259</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36363,10 +35391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:08</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44128.59939814815</v>
       </c>
       <c r="I496" t="n">
         <v>2</v>
@@ -36430,10 +35456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:06</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44128.599375</v>
       </c>
       <c r="I497" t="n">
         <v>1</v>
@@ -36497,10 +35521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:23:03</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44128.59934027777</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36564,10 +35586,8 @@
           <t>3632361556</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:55</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44128.59924768518</v>
       </c>
       <c r="I499" t="n">
         <v>2</v>
@@ -36636,10 +35656,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:52</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44128.59921296296</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36703,10 +35721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:51</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44128.59920138889</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36774,10 +35790,8 @@
           <t>3632361164</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:49</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44128.59917824074</v>
       </c>
       <c r="I502" t="n">
         <v>0</v>
@@ -36844,10 +35858,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:46</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44128.59914351852</v>
       </c>
       <c r="I503" t="n">
         <v>1</v>
@@ -36911,10 +35923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:38</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44128.59905092593</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -36978,10 +35988,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:35</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44128.59901620371</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37045,10 +36053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:35</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44128.59901620371</v>
       </c>
       <c r="I506" t="n">
         <v>9</v>
@@ -37108,10 +36114,8 @@
           <t>3632365964</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:21</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44128.59885416667</v>
       </c>
       <c r="I507" t="n">
         <v>13</v>
@@ -37192,10 +36196,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:19</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44128.59883101852</v>
       </c>
       <c r="I508" t="n">
         <v>613</v>
@@ -37267,10 +36269,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:09</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44128.59871527777</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37342,10 +36342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:06</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44128.59868055556</v>
       </c>
       <c r="I510" t="n">
         <v>973</v>
@@ -37414,10 +36412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:06</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44128.59868055556</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37489,10 +36485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:03</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44128.59864583334</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37568,10 +36562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:02</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44128.59863425926</v>
       </c>
       <c r="I513" t="n">
         <v>406</v>
@@ -37635,10 +36627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:22:01</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44128.59862268518</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
@@ -37706,10 +36696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:57</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44128.59857638889</v>
       </c>
       <c r="I515" t="n">
         <v>90</v>
@@ -37777,10 +36765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:56</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44128.59856481481</v>
       </c>
       <c r="I516" t="n">
         <v>0</v>
@@ -37848,10 +36834,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:55</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44128.59855324074</v>
       </c>
       <c r="I517" t="n">
         <v>2275</v>
@@ -37923,10 +36907,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:55</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44128.59855324074</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -37998,10 +36980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:51</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44128.59850694444</v>
       </c>
       <c r="I519" t="n">
         <v>1</v>
@@ -38069,10 +37049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:49</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44128.5984837963</v>
       </c>
       <c r="I520" t="n">
         <v>6</v>
@@ -38148,10 +37126,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:47</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44128.59846064815</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38215,10 +37191,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:43</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44128.59841435185</v>
       </c>
       <c r="I522" t="n">
         <v>0</v>
@@ -38294,10 +37268,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:41</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44128.5983912037</v>
       </c>
       <c r="I523" t="n">
         <v>1</v>
@@ -38373,10 +37345,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:39</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44128.59836805556</v>
       </c>
       <c r="I524" t="n">
         <v>31</v>
@@ -38444,10 +37414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:39</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44128.59836805556</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38511,10 +37479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:37</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44128.5983449074</v>
       </c>
       <c r="I526" t="n">
         <v>62</v>
@@ -38582,10 +37548,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:37</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44128.5983449074</v>
       </c>
       <c r="I527" t="n">
         <v>23</v>
@@ -38649,10 +37613,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:32</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44128.59828703704</v>
       </c>
       <c r="I528" t="n">
         <v>2</v>
@@ -38728,10 +37690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:28</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44128.59824074074</v>
       </c>
       <c r="I529" t="n">
         <v>0</v>
@@ -38799,10 +37759,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:28</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44128.59824074074</v>
       </c>
       <c r="I530" t="n">
         <v>371</v>
@@ -38878,10 +37836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:27</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44128.59822916667</v>
       </c>
       <c r="I531" t="n">
         <v>1</v>
@@ -38949,10 +37905,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:26</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44128.59821759259</v>
       </c>
       <c r="I532" t="n">
         <v>1</v>
@@ -39020,10 +37974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:25</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44128.59820601852</v>
       </c>
       <c r="I533" t="n">
         <v>1</v>
@@ -39101,10 +38053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:25</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44128.59820601852</v>
       </c>
       <c r="I534" t="n">
         <v>0</v>
@@ -39168,10 +38118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:24</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44128.59819444444</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39239,10 +38187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:24</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44128.59819444444</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39314,10 +38260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2020-10-24 14:21:20</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44128.59814814815</v>
       </c>
       <c r="I537" t="n">
         <v>0</v>
